--- a/data/trans_dic/Q23_tabaco_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4212609044124693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4464661454176609</v>
+        <v>0.4464661454176608</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3277488622820056</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3736778794840147</v>
+        <v>0.3686856052154983</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3467856802425557</v>
+        <v>0.3458632752350193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3787402392220051</v>
+        <v>0.3828387412005007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3847913092150764</v>
+        <v>0.3851878589542949</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2726896121606783</v>
+        <v>0.2738029835983516</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2851285748158491</v>
+        <v>0.2832853997070487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2621699561845747</v>
+        <v>0.2583657239113264</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2391136688519493</v>
+        <v>0.2383986115209469</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.341902463144234</v>
+        <v>0.343684491593983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3322952964707489</v>
+        <v>0.3336985132950122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3422497375788375</v>
+        <v>0.3453075747052037</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3377367382335987</v>
+        <v>0.3434559160870265</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4788707451257838</v>
+        <v>0.4800727475604447</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4270079954565229</v>
+        <v>0.4279208111764763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4616872620848674</v>
+        <v>0.4602358070698196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5102295954129261</v>
+        <v>0.5098294700964895</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3832386739978398</v>
+        <v>0.3874786976701178</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3733146257887006</v>
+        <v>0.3724396215661984</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3479900583792334</v>
+        <v>0.3432839823839351</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3625207913822247</v>
+        <v>0.3585383267291424</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4204529374449203</v>
+        <v>0.4196000029513444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.392013201881216</v>
+        <v>0.3943536514042642</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4013323726625089</v>
+        <v>0.4002670025282568</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4265066869803024</v>
+        <v>0.4317158216651649</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2900703211337295</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2903333131734544</v>
+        <v>0.2903333131734545</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3087743875265677</v>
+        <v>0.306029593880775</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3266927469191751</v>
+        <v>0.3274558584350387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2869221524642975</v>
+        <v>0.287282636936274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2990451367107492</v>
+        <v>0.3018723892252871</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1639100499997163</v>
+        <v>0.1639311492038645</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2256090716596438</v>
+        <v>0.2283386987546337</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1912167893269152</v>
+        <v>0.1924262034749008</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1692980116023389</v>
+        <v>0.1668062386711571</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2718027815513347</v>
+        <v>0.2706241964611224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2982859708591778</v>
+        <v>0.2968782667156492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2603034485202904</v>
+        <v>0.2607696625100774</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2563674684627126</v>
+        <v>0.2596537997249323</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3867977557047644</v>
+        <v>0.3866409567782206</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4070683205959086</v>
+        <v>0.4068791385653804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3767866278116225</v>
+        <v>0.3741975600777478</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.394272724414674</v>
+        <v>0.3949482147767222</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2516221830940337</v>
+        <v>0.2574826815065575</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3210466460851635</v>
+        <v>0.3196467699498292</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2829195560585959</v>
+        <v>0.2835185566790475</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2482022749770588</v>
+        <v>0.2508972136652902</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3313347398841815</v>
+        <v>0.3268379085320168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3583502633146865</v>
+        <v>0.3598195784438692</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.325580537818453</v>
+        <v>0.3230810071634869</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3236498979894806</v>
+        <v>0.3257387343039592</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2247595193652265</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2536525622340127</v>
+        <v>0.2536525622340126</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3065657017566774</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2864433884022581</v>
+        <v>0.2829312213081979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2876019062720415</v>
+        <v>0.2844710729472927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2608956778083256</v>
+        <v>0.2592929618454433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1960390745807803</v>
+        <v>0.1968883725110712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2247682851605902</v>
+        <v>0.2247325154619723</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2011364087848469</v>
+        <v>0.1987856332780344</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1764381325433153</v>
+        <v>0.175181276529742</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2048282488326766</v>
+        <v>0.2081293285172694</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2768307755632502</v>
+        <v>0.2760356591622664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2636718153280876</v>
+        <v>0.2609893950615507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2414299322163928</v>
+        <v>0.2351447621004643</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2115096565422187</v>
+        <v>0.2119939492950925</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3641837265204458</v>
+        <v>0.3655307058135461</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.372970138705962</v>
+        <v>0.3737091902389724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3610402921933956</v>
+        <v>0.3607766154997006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2844194398390207</v>
+        <v>0.2895246907793647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3268261079925964</v>
+        <v>0.3233157733048981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3042324424830062</v>
+        <v>0.3006838431793825</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2887926684235195</v>
+        <v>0.2800430323740217</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3053000655834854</v>
+        <v>0.3052252045059055</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3414542042391132</v>
+        <v>0.3358816116615417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3276134182787358</v>
+        <v>0.3277097075377576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3113445546453432</v>
+        <v>0.3108362700525822</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2762178598543247</v>
+        <v>0.2774636784795653</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3314026647197263</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3378698202185152</v>
+        <v>0.3378698202185151</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.24714119574053</v>
@@ -1105,7 +1105,7 @@
         <v>0.292098039527305</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2831931677158237</v>
+        <v>0.2831931677158238</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2843330919114673</v>
+        <v>0.2860745813286948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.267036867230573</v>
+        <v>0.2656738286414079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2697984954326713</v>
+        <v>0.2698530516492569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2861484807792622</v>
+        <v>0.290517903638503</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1707002481927336</v>
+        <v>0.1695629966663865</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1233202717966231</v>
+        <v>0.1227471329451525</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1727403323555665</v>
+        <v>0.173673591545044</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1649771853446705</v>
+        <v>0.165814350087873</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2564677720880345</v>
+        <v>0.2630463879339329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.225084708816083</v>
+        <v>0.2259391326010601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2460373502173319</v>
+        <v>0.2481526759798369</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2486848536704709</v>
+        <v>0.2459166821136208</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4217392203522228</v>
+        <v>0.4263061733768337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3919287240322293</v>
+        <v>0.3939923190395113</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3963297567729808</v>
+        <v>0.4027822359613301</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3921407186987497</v>
+        <v>0.3900239489217924</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3341390107341511</v>
+        <v>0.3281546199966465</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2582595366894176</v>
+        <v>0.2614164188849582</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3151376855406117</v>
+        <v>0.3094058180731088</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.254351763062269</v>
+        <v>0.2539373127716325</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3648816189992719</v>
+        <v>0.3725442472331399</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3255799571114945</v>
+        <v>0.3235666126970538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3415183293637234</v>
+        <v>0.3442889482391482</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3168131209158356</v>
+        <v>0.320448771835945</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3296583240525753</v>
+        <v>0.3321171201840399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3385444768703238</v>
+        <v>0.3353333214326587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3353998867712238</v>
+        <v>0.3378173475987331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3079983789986616</v>
+        <v>0.3098918195471607</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2370727317928596</v>
+        <v>0.2353045649478349</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2505928286349803</v>
+        <v>0.2503186769741633</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2337064869177362</v>
+        <v>0.2359805194388233</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2119436578493243</v>
+        <v>0.2102353964446598</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3046055513803845</v>
+        <v>0.3019969483192615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3104622729454499</v>
+        <v>0.3099063994327367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3027452152192919</v>
+        <v>0.3021184641472105</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2763233920052092</v>
+        <v>0.276146291359841</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3782370385845679</v>
+        <v>0.3775595414462113</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3818402833840117</v>
+        <v>0.3786276547665013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3825949700729526</v>
+        <v>0.3844691229327555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3585018657117392</v>
+        <v>0.3593119756851313</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2925951208800529</v>
+        <v>0.2907841012383988</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3022704943233249</v>
+        <v>0.3022414857069772</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2848868616403797</v>
+        <v>0.2846736019034355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2625291555667556</v>
+        <v>0.2585471007986014</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3395109995529604</v>
+        <v>0.3390204771929939</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3443875053891494</v>
+        <v>0.3431158207528747</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3361405620327012</v>
+        <v>0.3386111907540548</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3106576359573111</v>
+        <v>0.3114593544525088</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>124266</v>
+        <v>122606</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>231894</v>
+        <v>231277</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>256623</v>
+        <v>259400</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105414</v>
+        <v>105523</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>67653</v>
+        <v>67929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>130007</v>
+        <v>129167</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>125993</v>
+        <v>124165</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46202</v>
+        <v>46064</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>198523</v>
+        <v>199558</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>373718</v>
+        <v>375296</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>396376</v>
+        <v>399917</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>157782</v>
+        <v>160454</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>159248</v>
+        <v>159647</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>285538</v>
+        <v>286149</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>312825</v>
+        <v>311842</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139778</v>
+        <v>139668</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>95079</v>
+        <v>96131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>170217</v>
+        <v>169818</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>167236</v>
+        <v>164975</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>70048</v>
+        <v>69278</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>244133</v>
+        <v>243637</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>440880</v>
+        <v>443512</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>464802</v>
+        <v>463568</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>199253</v>
+        <v>201687</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>186703</v>
+        <v>185043</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>200943</v>
+        <v>201413</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135212</v>
+        <v>135382</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>133148</v>
+        <v>134407</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52590</v>
+        <v>52596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>92003</v>
+        <v>93117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66940</v>
+        <v>67363</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50914</v>
+        <v>50165</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>251554</v>
+        <v>250463</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>305112</v>
+        <v>303672</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>213793</v>
+        <v>214176</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>191245</v>
+        <v>193697</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>233880</v>
+        <v>233786</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>250381</v>
+        <v>250265</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>177561</v>
+        <v>176341</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>175547</v>
+        <v>175848</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>80731</v>
+        <v>82612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130923</v>
+        <v>130352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>99042</v>
+        <v>99252</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74644</v>
+        <v>75454</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>306651</v>
+        <v>302489</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>366550</v>
+        <v>368053</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>267406</v>
+        <v>265354</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>241437</v>
+        <v>242995</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>161143</v>
+        <v>159167</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>144078</v>
+        <v>142510</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>99794</v>
+        <v>99181</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>80270</v>
+        <v>80618</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>65880</v>
+        <v>65869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60863</v>
+        <v>60152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>43317</v>
+        <v>43009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54699</v>
+        <v>55581</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>236874</v>
+        <v>236194</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>211877</v>
+        <v>209721</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>151622</v>
+        <v>147675</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>143088</v>
+        <v>143415</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>204877</v>
+        <v>205634</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>186845</v>
+        <v>187215</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>138100</v>
+        <v>137999</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116458</v>
+        <v>118548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>95793</v>
+        <v>94764</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>92060</v>
+        <v>90986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>70901</v>
+        <v>68753</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81530</v>
+        <v>81510</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>292170</v>
+        <v>287402</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>263258</v>
+        <v>263335</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>195529</v>
+        <v>195210</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>186863</v>
+        <v>187706</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56042</v>
+        <v>56386</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63904</v>
+        <v>63578</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60194</v>
+        <v>60206</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>114881</v>
+        <v>116636</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19571</v>
+        <v>19441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18137</v>
+        <v>18053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27548</v>
+        <v>27697</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>47323</v>
+        <v>47563</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79955</v>
+        <v>82006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>86968</v>
+        <v>87298</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>94130</v>
+        <v>94939</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>171175</v>
+        <v>169270</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83125</v>
+        <v>84025</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>93791</v>
+        <v>94285</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>88424</v>
+        <v>89864</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>157435</v>
+        <v>156585</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>38310</v>
+        <v>37624</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37982</v>
+        <v>38447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50257</v>
+        <v>49343</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72960</v>
+        <v>72841</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>113753</v>
+        <v>116142</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>125797</v>
+        <v>125019</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>130660</v>
+        <v>131720</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>218069</v>
+        <v>220572</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>559388</v>
+        <v>563560</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>685232</v>
+        <v>678732</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>588437</v>
+        <v>592678</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>471277</v>
+        <v>474174</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>231547</v>
+        <v>229820</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>329136</v>
+        <v>328776</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>288776</v>
+        <v>291586</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>222087</v>
+        <v>220297</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>814382</v>
+        <v>807408</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1036161</v>
+        <v>1034306</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>905230</v>
+        <v>903356</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>712357</v>
+        <v>711901</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>641820</v>
+        <v>640670</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>772865</v>
+        <v>766362</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>671237</v>
+        <v>674525</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>548554</v>
+        <v>549793</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>285775</v>
+        <v>284006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>397011</v>
+        <v>396972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>352017</v>
+        <v>351753</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>275093</v>
+        <v>270920</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>907704</v>
+        <v>906392</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1149386</v>
+        <v>1145142</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1005084</v>
+        <v>1012472</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>800870</v>
+        <v>802937</v>
       </c>
     </row>
     <row r="24">
